--- a/CEC_txt_to_xlsx/OUTPUTS/RANKTABLE_D30.xlsx
+++ b/CEC_txt_to_xlsx/OUTPUTS/RANKTABLE_D30.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7860"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CEC2017" sheetId="1" r:id="rId1"/>
+    <sheet name="com TLBO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="177">
   <si>
     <t>D = 30</t>
   </si>
@@ -299,6 +300,252 @@
   </si>
   <si>
     <t>VITÓRIAS</t>
+  </si>
+  <si>
+    <t>TLBO-FL</t>
+  </si>
+  <si>
+    <t>4.22E+9</t>
+  </si>
+  <si>
+    <t>1.31E+9</t>
+  </si>
+  <si>
+    <t>2.13E+4</t>
+  </si>
+  <si>
+    <t>1.95E+5</t>
+  </si>
+  <si>
+    <t>1.65E+5</t>
+  </si>
+  <si>
+    <t>3.38E+6</t>
+  </si>
+  <si>
+    <t>3.80E+2</t>
+  </si>
+  <si>
+    <t>1.88E+2</t>
+  </si>
+  <si>
+    <t>4.72E+1</t>
+  </si>
+  <si>
+    <t>1.53E+2</t>
+  </si>
+  <si>
+    <t>9.55E+1</t>
+  </si>
+  <si>
+    <t>1.54E+2</t>
+  </si>
+  <si>
+    <t>1.06E+1</t>
+  </si>
+  <si>
+    <t>2.97E+0</t>
+  </si>
+  <si>
+    <t>5.93E-7</t>
+  </si>
+  <si>
+    <t>2.80E+2</t>
+  </si>
+  <si>
+    <t>1.87E+2</t>
+  </si>
+  <si>
+    <t>1.75E+2</t>
+  </si>
+  <si>
+    <t>1.51E+2</t>
+  </si>
+  <si>
+    <t>9.83E+1</t>
+  </si>
+  <si>
+    <t>1.71E+2</t>
+  </si>
+  <si>
+    <t>6.08E+3</t>
+  </si>
+  <si>
+    <t>4.98E+3</t>
+  </si>
+  <si>
+    <t>3.63E+3</t>
+  </si>
+  <si>
+    <t>3.52E+3</t>
+  </si>
+  <si>
+    <t>3.44E+3</t>
+  </si>
+  <si>
+    <t>1.19E+4</t>
+  </si>
+  <si>
+    <t>3.15E+3</t>
+  </si>
+  <si>
+    <t>1.17E+2</t>
+  </si>
+  <si>
+    <t>6.58E+8</t>
+  </si>
+  <si>
+    <t>1.48E+8</t>
+  </si>
+  <si>
+    <t>1.95E+7</t>
+  </si>
+  <si>
+    <t>1.52E+9</t>
+  </si>
+  <si>
+    <t>3.54E+7</t>
+  </si>
+  <si>
+    <t>6.95E+4</t>
+  </si>
+  <si>
+    <t>9.11E+6</t>
+  </si>
+  <si>
+    <t>1.38E+6</t>
+  </si>
+  <si>
+    <t>1.46E+6</t>
+  </si>
+  <si>
+    <t>4.14E+8</t>
+  </si>
+  <si>
+    <t>4.69E+6</t>
+  </si>
+  <si>
+    <t>3.74E+4</t>
+  </si>
+  <si>
+    <t>1.46E+3</t>
+  </si>
+  <si>
+    <t>1.04E+3</t>
+  </si>
+  <si>
+    <t>1.39E+3</t>
+  </si>
+  <si>
+    <t>8.01E+2</t>
+  </si>
+  <si>
+    <t>8.15E+2</t>
+  </si>
+  <si>
+    <t>1.10E+7</t>
+  </si>
+  <si>
+    <t>9.28E+6</t>
+  </si>
+  <si>
+    <t>4.94E+6</t>
+  </si>
+  <si>
+    <t>3.65E+8</t>
+  </si>
+  <si>
+    <t>1.19E+7</t>
+  </si>
+  <si>
+    <t>2.43E+4</t>
+  </si>
+  <si>
+    <t>7.50E+2</t>
+  </si>
+  <si>
+    <t>4.23E+2</t>
+  </si>
+  <si>
+    <t>8.36E+2</t>
+  </si>
+  <si>
+    <t>3.46E+2</t>
+  </si>
+  <si>
+    <t>3.00E+2</t>
+  </si>
+  <si>
+    <t>3.60E+2</t>
+  </si>
+  <si>
+    <t>4.01E+3</t>
+  </si>
+  <si>
+    <t>4.40E+2</t>
+  </si>
+  <si>
+    <t>4.21E+3</t>
+  </si>
+  <si>
+    <t>5.08E+2</t>
+  </si>
+  <si>
+    <t>4.42E+2</t>
+  </si>
+  <si>
+    <t>5.17E+2</t>
+  </si>
+  <si>
+    <t>7.21E+2</t>
+  </si>
+  <si>
+    <t>5.92E+2</t>
+  </si>
+  <si>
+    <t>6.74E+2</t>
+  </si>
+  <si>
+    <t>2.59E+3</t>
+  </si>
+  <si>
+    <t>2.09E+3</t>
+  </si>
+  <si>
+    <t>3.08E+3</t>
+  </si>
+  <si>
+    <t>5.78E+2</t>
+  </si>
+  <si>
+    <t>5.51E+2</t>
+  </si>
+  <si>
+    <t>5.48E+2</t>
+  </si>
+  <si>
+    <t>8.84E+2</t>
+  </si>
+  <si>
+    <t>3.42E+2</t>
+  </si>
+  <si>
+    <t>1.10E+3</t>
+  </si>
+  <si>
+    <t>1.17E+3</t>
+  </si>
+  <si>
+    <t>1.09E+3</t>
+  </si>
+  <si>
+    <t>8.08E+7</t>
+  </si>
+  <si>
+    <t>2.54E+6</t>
+  </si>
+  <si>
+    <t>1.95E+4</t>
   </si>
 </sst>
 </file>
@@ -306,11 +553,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -330,9 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,21 +594,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +607,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -376,15 +622,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,15 +647,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,22 +662,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +683,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -459,18 +713,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -483,7 +730,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +772,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,37 +820,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,126 +904,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -698,9 +945,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -709,9 +954,7 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -724,9 +967,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -739,9 +980,7 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -781,6 +1020,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,9 +1120,7 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -870,11 +1131,31 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -887,6 +1168,92 @@
       <top/>
       <bottom style="thin">
         <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,17 +1271,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,23 +1304,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,23 +1313,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,6 +1326,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,129 +1354,135 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,32 +1491,32 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1199,58 +1551,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1599,7 +2017,7 @@
   <sheetPr/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1626,22 +2044,22 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="27" t="s">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8"/>
@@ -1663,779 +2081,779 @@
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28"/>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="14">
-        <v>3</v>
-      </c>
-      <c r="H6" s="28"/>
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28"/>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28"/>
+      <c r="G8" s="18">
+        <v>2</v>
+      </c>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="18">
+        <v>3</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="14">
-        <v>2</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28"/>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14">
-        <v>2</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="18">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28"/>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14">
-        <v>3</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="18">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14">
-        <v>2</v>
-      </c>
-      <c r="H11" s="28"/>
+      <c r="G11" s="18">
+        <v>2</v>
+      </c>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="14">
-        <v>3</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="18">
+        <v>3</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="14">
-        <v>2</v>
-      </c>
-      <c r="H12" s="28"/>
+      <c r="G12" s="18">
+        <v>2</v>
+      </c>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14">
-        <v>3</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="18">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="14">
-        <v>2</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28"/>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="28"/>
+      <c r="G14" s="18">
+        <v>2</v>
+      </c>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="14">
-        <v>3</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="14">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="28"/>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="14">
-        <v>3</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="14">
-        <v>2</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28"/>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="14">
-        <v>3</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="14">
-        <v>2</v>
-      </c>
-      <c r="H17" s="28"/>
+      <c r="G17" s="18">
+        <v>2</v>
+      </c>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="14">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="14">
-        <v>2</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="14">
-        <v>3</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="18">
+        <v>3</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="14">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="18">
+        <v>2</v>
+      </c>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="14">
-        <v>3</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="14">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="18">
+        <v>2</v>
+      </c>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="14">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="18">
+        <v>3</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="14">
-        <v>2</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="14">
-        <v>3</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="14">
-        <v>2</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28"/>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="14">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="14">
-        <v>2</v>
-      </c>
-      <c r="H23" s="28"/>
+      <c r="G23" s="18">
+        <v>2</v>
+      </c>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="14">
-        <v>3</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="18">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="14">
-        <v>2</v>
-      </c>
-      <c r="H24" s="28"/>
+      <c r="G24" s="18">
+        <v>2</v>
+      </c>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14">
+      <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="14">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="14">
-        <v>1</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="14">
-        <v>2</v>
-      </c>
-      <c r="H25" s="28"/>
+      <c r="G25" s="18">
+        <v>2</v>
+      </c>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="14">
-        <v>3</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="18">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="14">
-        <v>1</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="14">
-        <v>2</v>
-      </c>
-      <c r="H26" s="28"/>
+      <c r="G26" s="18">
+        <v>2</v>
+      </c>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="14">
-        <v>3</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="18">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="14">
-        <v>1</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="14">
-        <v>2</v>
-      </c>
-      <c r="H27" s="28"/>
+      <c r="G27" s="18">
+        <v>2</v>
+      </c>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="18">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="14">
-        <v>3</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="18">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="14">
-        <v>2</v>
-      </c>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="18">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="28"/>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14">
+      <c r="A29" s="18">
         <v>26</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="14">
-        <v>3</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="18">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="14">
-        <v>1</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-      <c r="H29" s="28"/>
+      <c r="G29" s="18">
+        <v>2</v>
+      </c>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="18">
         <v>27</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="14">
-        <v>3</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="18">
+        <v>3</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="14">
-        <v>2</v>
-      </c>
-      <c r="F30" s="15" t="s">
+      <c r="E30" s="18">
+        <v>2</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="14">
-        <v>1</v>
-      </c>
-      <c r="H30" s="28"/>
+      <c r="G30" s="18">
+        <v>1</v>
+      </c>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14">
+      <c r="A31" s="18">
         <v>28</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="14">
-        <v>3</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="18">
+        <v>3</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="14">
-        <v>2</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="18">
+        <v>2</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="28"/>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14">
+      <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="14">
-        <v>2</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="18">
+        <v>2</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="14">
-        <v>3</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="18">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="14">
-        <v>1</v>
-      </c>
-      <c r="H32" s="28"/>
+      <c r="G32" s="18">
+        <v>1</v>
+      </c>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16">
+      <c r="A33" s="20">
         <v>30</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="18">
-        <v>3</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="38">
+        <v>3</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="18">
-        <v>2</v>
-      </c>
-      <c r="F33" s="17" t="s">
+      <c r="E33" s="38">
+        <v>2</v>
+      </c>
+      <c r="F33" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="18">
-        <v>1</v>
-      </c>
-      <c r="H33" s="28"/>
+      <c r="G33" s="38">
+        <v>1</v>
+      </c>
+      <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21">
+      <c r="B34" s="50"/>
+      <c r="C34" s="41">
         <f>AVERAGE(C4:C33)</f>
         <v>2.93103448275862</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21">
+      <c r="D34" s="40"/>
+      <c r="E34" s="41">
         <f>AVERAGE(E4:E33)</f>
         <v>1.55172413793103</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21">
+      <c r="F34" s="40"/>
+      <c r="G34" s="41">
         <f>AVERAGE(G4:G33)</f>
         <v>1.51724137931034</v>
       </c>
-      <c r="H34" s="29"/>
+      <c r="H34" s="53"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="26">
         <f>COUNTIF(C4:C33,1)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26">
         <f>COUNTIF(E4:E33,1)</f>
         <v>14</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24">
+      <c r="E35" s="26"/>
+      <c r="F35" s="26">
         <f>COUNTIF(G4:G33,1)</f>
         <v>15</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2451,4 +2869,1073 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="A1:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="9.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>3500</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="33">
+        <v>3000</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="18">
+        <v>4</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35">
+        <v>90</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="18">
+        <v>4</v>
+      </c>
+      <c r="H8" s="36">
+        <v>40</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0.49</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="18">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
+      <c r="H10" s="36">
+        <v>140</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="18">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="18">
+        <v>4</v>
+      </c>
+      <c r="H11" s="36">
+        <v>37</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="18">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="18">
+        <v>3</v>
+      </c>
+      <c r="H12" s="36">
+        <v>34</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="18">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="18">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35">
+        <v>6700</v>
+      </c>
+      <c r="I13" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="18">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="18">
+        <v>4</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="18">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="18">
+        <v>2</v>
+      </c>
+      <c r="H14" s="36">
+        <v>82</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="18">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="18">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="18">
+        <v>3</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>57000</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="18">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="18">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>20000</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="18">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="18">
+        <v>3</v>
+      </c>
+      <c r="H17" s="36">
+        <v>7100</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="36">
+        <v>22000</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="18">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="18">
+        <v>4</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="18">
+        <v>3</v>
+      </c>
+      <c r="H19" s="36">
+        <v>490</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="18">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="18">
+        <v>4</v>
+      </c>
+      <c r="H20" s="36">
+        <v>140</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="18">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="18">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="18">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2</v>
+      </c>
+      <c r="H21" s="36">
+        <v>370000</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="18">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="18">
+        <v>4</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="18">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="18">
+        <v>2</v>
+      </c>
+      <c r="H22" s="36">
+        <v>11000</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="18">
+        <v>20</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="18">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="18">
+        <v>4</v>
+      </c>
+      <c r="H23" s="36">
+        <v>220</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="18">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="18">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="18">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="18">
+        <v>4</v>
+      </c>
+      <c r="H24" s="36">
+        <v>230</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="18">
+        <v>22</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="18">
+        <v>4</v>
+      </c>
+      <c r="H25" s="36">
+        <v>100</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="18">
+        <v>23</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="18">
+        <v>3</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="18">
+        <v>4</v>
+      </c>
+      <c r="H26" s="36">
+        <v>400</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="18">
+        <v>24</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="18">
+        <v>4</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="18">
+        <v>3</v>
+      </c>
+      <c r="H27" s="36">
+        <v>470</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="18">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="18">
+        <v>3</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35">
+        <v>400</v>
+      </c>
+      <c r="I28" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="18">
+        <v>26</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="18">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="18">
+        <v>4</v>
+      </c>
+      <c r="H29" s="36">
+        <v>1400</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="18">
+        <v>27</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="18">
+        <v>4</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="18">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="18">
+        <v>2</v>
+      </c>
+      <c r="H30" s="36">
+        <v>530</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="18">
+        <v>28</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="18">
+        <v>4</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="35">
+        <v>430</v>
+      </c>
+      <c r="I31" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="18">
+        <v>29</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="18">
+        <v>3</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="18">
+        <v>4</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="18">
+        <v>2</v>
+      </c>
+      <c r="H32" s="36">
+        <v>620</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="20">
+        <v>30</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="20">
+        <v>4</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="38">
+        <v>1</v>
+      </c>
+      <c r="H33" s="39">
+        <v>26000</v>
+      </c>
+      <c r="I33" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24">
+        <f>AVERAGE(C4:C33)</f>
+        <v>3.62068965517241</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24">
+        <f>AVERAGE(E4:E33)</f>
+        <v>2.55172413793103</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41">
+        <f>AVERAGE(G4:G33)</f>
+        <v>2.55172413793103</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="41">
+        <f>AVERAGE(I4:I33)</f>
+        <v>1.27586206896552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="26">
+        <f>COUNTIF(C4:C33,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26">
+        <f>COUNTIF(E4:E33,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26">
+        <f>COUNTIF(G4:G33,1)</f>
+        <v>6</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26">
+        <f>COUNTIF(I4:I33,1)</f>
+        <v>23</v>
+      </c>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f>COUNTIF(E4:E33,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>COUNTIF(G4:G33,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <f>COUNTIF(E4:E33,2)</f>
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <f>COUNTIF(G4:G33,2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f>COUNTIF(E4:E33,3)</f>
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <f>COUNTIF(G4:G33,3)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>